--- a/Original Excel Files/JX.xlsx
+++ b/Original Excel Files/JX.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62543948-F6CF-4B27-909B-7C0609068251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="30210" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1365,7 +1366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1434,7 +1435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1459,6 +1460,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1468,6 +1475,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1516,7 +1526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1549,9 +1559,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1584,6 +1611,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1759,71 +1803,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228:G228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1999</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1965</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>214</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>215</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>216</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>217</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G5" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1847,22 +1880,45 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1889,13 +1945,12 @@
       <c r="C10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="9">
+      <c r="F10" s="9">
         <v>1993</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1914,638 +1969,878 @@
         <v>227</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" t="s">
+        <v>231</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" t="s">
-        <v>230</v>
-      </c>
-      <c r="G13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1966</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1984</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1966</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>65</v>
+      <c r="A15" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1984</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1975</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>428</v>
-      </c>
-      <c r="B17" t="s">
-        <v>429</v>
-      </c>
-      <c r="C17" t="s">
-        <v>430</v>
-      </c>
-      <c r="D17" t="s">
-        <v>431</v>
-      </c>
-      <c r="E17" t="s">
-        <v>432</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>433</v>
+      <c r="A17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1999</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A18" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1972</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1975</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A20" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" t="s">
+        <v>241</v>
+      </c>
+    </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>41</v>
+      <c r="A22" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1968</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="C23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1968</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="C24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1968</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>434</v>
-      </c>
-      <c r="B25" t="s">
-        <v>281</v>
-      </c>
-      <c r="C25" t="s">
-        <v>282</v>
-      </c>
-      <c r="F25" t="s">
-        <v>435</v>
-      </c>
-      <c r="G25" t="s">
-        <v>436</v>
+      <c r="A25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1968</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1972</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="C26" s="6"/>
+      <c r="F26" s="9">
+        <v>2010</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G27" t="s">
-        <v>236</v>
+      <c r="A27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="F27" s="12">
+        <v>2010</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>237</v>
-      </c>
-      <c r="B28" t="s">
-        <v>238</v>
-      </c>
-      <c r="C28" t="s">
-        <v>239</v>
-      </c>
-      <c r="F28" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" t="s">
-        <v>241</v>
+      <c r="A28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="F28" s="12">
+        <v>2010</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1968</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>76</v>
+      <c r="C29" s="6"/>
+      <c r="F29" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="9">
-        <v>1968</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>78</v>
+      <c r="C30" s="6"/>
+      <c r="F30" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1968</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>80</v>
+      <c r="C31" s="6"/>
+      <c r="F31" s="9">
+        <v>2005</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1968</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>82</v>
+      <c r="C32" s="6"/>
+      <c r="F32" s="9">
+        <v>2005</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="9">
-        <v>2002</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>90</v>
+      <c r="A33" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="9">
-        <v>2002</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>92</v>
+      <c r="A34" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="9">
-        <v>2005</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>94</v>
+      <c r="A35" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="9">
-        <v>2005</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="9">
+        <v>2007</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" t="s">
+        <v>263</v>
+      </c>
+    </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="9">
-        <v>2010</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>86</v>
+      <c r="C38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1965</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="9">
-        <v>2010</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>88</v>
+      <c r="C39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1915</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="9">
-        <v>2010</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>84</v>
+      <c r="A40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="10"/>
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="A42" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="10"/>
+      <c r="C42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1903</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="C43" t="s">
-        <v>244</v>
-      </c>
-      <c r="D43" t="s">
-        <v>245</v>
-      </c>
-      <c r="E43" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="G43" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
+        <v>270</v>
+      </c>
+      <c r="C44" t="s">
+        <v>271</v>
       </c>
       <c r="F44" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="9">
-        <v>2007</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>99</v>
+      <c r="A46" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1928</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
-      </c>
-      <c r="D48" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G48" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>257</v>
-      </c>
-      <c r="B49" t="s">
-        <v>258</v>
-      </c>
-      <c r="C49" t="s">
-        <v>259</v>
-      </c>
-      <c r="D49" t="s">
-        <v>260</v>
-      </c>
-      <c r="E49" t="s">
-        <v>261</v>
-      </c>
-      <c r="F49" t="s">
-        <v>262</v>
-      </c>
-      <c r="G49" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A49" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1970</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" t="s">
+        <v>278</v>
+      </c>
+      <c r="F50" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>100</v>
+      <c r="A53" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="B53" s="6"/>
-      <c r="C53" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="9">
-        <v>1965</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="C53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>14</v>
+      <c r="A54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" t="s">
+        <v>283</v>
+      </c>
+      <c r="G54" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="9">
-        <v>1915</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>14</v>
+        <v>114</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1963</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>14</v>
+      <c r="A56" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="12">
+        <v>1965</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="8"/>
+      <c r="A57" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" t="s">
+        <v>288</v>
+      </c>
+      <c r="G57" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="8"/>
+      <c r="C58" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1924</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="9">
-        <v>1903</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>106</v>
+      <c r="A59" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" t="s">
+        <v>226</v>
+      </c>
+      <c r="G59" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="10"/>
+      <c r="C60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="12">
+        <v>1969</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>264</v>
-      </c>
-      <c r="B61" t="s">
-        <v>265</v>
-      </c>
-      <c r="C61" t="s">
-        <v>266</v>
-      </c>
-      <c r="F61" t="s">
-        <v>267</v>
-      </c>
-      <c r="G61" t="s">
-        <v>268</v>
+      <c r="A61" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="12">
+        <v>1956</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="B62" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>296</v>
+      </c>
+      <c r="D62" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62" t="s">
+        <v>297</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="G62" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>20</v>
+      <c r="A63" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" t="s">
+        <v>301</v>
+      </c>
+      <c r="C63" t="s">
+        <v>302</v>
+      </c>
+      <c r="F63" t="s">
+        <v>303</v>
+      </c>
+      <c r="G63" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -2567,1305 +2862,1560 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" s="9">
-        <v>1928</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="F67" s="9">
+        <v>1910</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>273</v>
-      </c>
-      <c r="B68" t="s">
-        <v>274</v>
-      </c>
-      <c r="C68" t="s">
-        <v>275</v>
-      </c>
-      <c r="F68" t="s">
-        <v>226</v>
-      </c>
-      <c r="G68" t="s">
-        <v>276</v>
+      <c r="A68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="9">
-        <v>1970</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69" s="3"/>
+      <c r="A69" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" t="s">
-        <v>4</v>
+      <c r="A71" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" s="12">
+        <v>1918</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>4</v>
+      <c r="A72" t="s">
+        <v>306</v>
+      </c>
+      <c r="B72" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>0</v>
+      <c r="A73" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>4</v>
+      <c r="C73" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="9">
+        <v>1949</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>310</v>
+      </c>
+      <c r="B74" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" t="s">
+        <v>312</v>
+      </c>
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>280</v>
-      </c>
-      <c r="B75" t="s">
-        <v>281</v>
-      </c>
-      <c r="C75" t="s">
-        <v>282</v>
-      </c>
-      <c r="F75" t="s">
-        <v>283</v>
-      </c>
-      <c r="G75" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A75" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="12">
+        <v>1954</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76" s="12">
+        <v>1945</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D77" s="9">
-        <v>1963</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>115</v>
+      <c r="A77" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F77" t="s">
+        <v>247</v>
+      </c>
+      <c r="G77" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" s="9">
-        <v>1965</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>118</v>
+        <v>144</v>
+      </c>
+      <c r="F78" s="9">
+        <v>1975</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>285</v>
-      </c>
-      <c r="B79" t="s">
-        <v>286</v>
-      </c>
-      <c r="C79" t="s">
-        <v>287</v>
-      </c>
-      <c r="F79" t="s">
-        <v>288</v>
-      </c>
-      <c r="G79" t="s">
-        <v>289</v>
+      <c r="A79" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F79" s="12">
+        <v>1924</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
+      <c r="A80" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="8"/>
+      <c r="C80" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1912</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="8"/>
+      <c r="A81" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="9">
-        <v>1924</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>121</v>
+        <v>153</v>
+      </c>
+      <c r="F82" s="9">
+        <v>1992</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="8"/>
+      <c r="A83" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" t="s">
+        <v>324</v>
+      </c>
+      <c r="G83" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>290</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="C84" t="s">
-        <v>292</v>
-      </c>
-      <c r="D84" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="F84" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="G84" t="s">
-        <v>293</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="8"/>
+      <c r="A85" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="B85" s="6"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="8"/>
+      <c r="C85" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="G85" s="8" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D86" s="9">
-        <v>1969</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>124</v>
+        <v>159</v>
+      </c>
+      <c r="F86" s="9">
+        <v>1973</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D87" s="9">
-        <v>1956</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>127</v>
+      <c r="A87" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="14"/>
+      <c r="F87" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="10"/>
+      <c r="A88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" t="s">
+        <v>325</v>
+      </c>
+      <c r="C88" t="s">
+        <v>326</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>294</v>
-      </c>
-      <c r="B89" t="s">
-        <v>295</v>
-      </c>
-      <c r="C89" t="s">
-        <v>296</v>
-      </c>
-      <c r="D89" t="s">
-        <v>295</v>
-      </c>
-      <c r="E89" t="s">
-        <v>297</v>
-      </c>
-      <c r="F89" t="s">
-        <v>298</v>
-      </c>
-      <c r="G89" t="s">
-        <v>299</v>
+      <c r="A89" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" s="12">
+        <v>1979</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="B90" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="C90" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="F90" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="G90" t="s">
-        <v>304</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>328</v>
+      </c>
+      <c r="B91" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" t="s">
+        <v>330</v>
+      </c>
+      <c r="F91" t="s">
+        <v>331</v>
+      </c>
+      <c r="G91" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>305</v>
-      </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
+      <c r="A92" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F92" s="12">
+        <v>1959</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F93" s="12">
+        <v>1964</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="G94" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>25</v>
+      <c r="A95" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" t="s">
+        <v>334</v>
+      </c>
+      <c r="C95" t="s">
+        <v>335</v>
+      </c>
+      <c r="F95" t="s">
+        <v>336</v>
+      </c>
+      <c r="G95" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D96" s="9">
-        <v>1910</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F96" s="3"/>
+      <c r="A96" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="17"/>
+      <c r="F96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>30</v>
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="9">
-        <v>1918</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G100" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="F100" s="9">
+        <v>1970</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>339</v>
+      </c>
+      <c r="B101" t="s">
+        <v>340</v>
+      </c>
+      <c r="C101" t="s">
+        <v>341</v>
+      </c>
+      <c r="F101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G101" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="B102" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="C102" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="F102" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G102" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" t="s">
+        <v>330</v>
+      </c>
+      <c r="F103" t="s">
+        <v>343</v>
+      </c>
+      <c r="G103" t="s">
+        <v>344</v>
+      </c>
+    </row>
     <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" s="9">
-        <v>1949</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>136</v>
+        <v>174</v>
+      </c>
+      <c r="F104" s="9">
+        <v>1966</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>310</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C105" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
+        <v>343</v>
       </c>
       <c r="G105" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="10"/>
+      <c r="A106" t="s">
+        <v>345</v>
+      </c>
+      <c r="B106" t="s">
+        <v>346</v>
+      </c>
+      <c r="C106" t="s">
+        <v>347</v>
+      </c>
+      <c r="D106" t="s">
+        <v>348</v>
+      </c>
+      <c r="E106" t="s">
+        <v>349</v>
+      </c>
+      <c r="F106" t="s">
+        <v>350</v>
+      </c>
+      <c r="G106" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="10"/>
+      <c r="A107" t="s">
+        <v>345</v>
+      </c>
+      <c r="B107" t="s">
+        <v>346</v>
+      </c>
+      <c r="C107" t="s">
+        <v>347</v>
+      </c>
+      <c r="D107" t="s">
+        <v>348</v>
+      </c>
+      <c r="E107" t="s">
+        <v>349</v>
+      </c>
+      <c r="F107" t="s">
+        <v>350</v>
+      </c>
+      <c r="G107" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="10"/>
+      <c r="A108" t="s">
+        <v>352</v>
+      </c>
+      <c r="B108" t="s">
+        <v>353</v>
+      </c>
+      <c r="C108" t="s">
+        <v>354</v>
+      </c>
+      <c r="D108" t="s">
+        <v>355</v>
+      </c>
+      <c r="E108" t="s">
+        <v>356</v>
+      </c>
+      <c r="F108" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="10"/>
+      <c r="A109" t="s">
+        <v>352</v>
+      </c>
+      <c r="B109" t="s">
+        <v>353</v>
+      </c>
+      <c r="C109" t="s">
+        <v>354</v>
+      </c>
+      <c r="D109" t="s">
+        <v>355</v>
+      </c>
+      <c r="E109" t="s">
+        <v>356</v>
+      </c>
+      <c r="F109" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="B110" s="11"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="10"/>
+      <c r="C110" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F110" s="12">
+        <v>1916</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B111" s="11"/>
+      <c r="C111" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F111" s="12">
+        <v>1963</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="F112" s="12">
+        <v>1974</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F113" s="12">
+        <v>1952</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>358</v>
+      </c>
+      <c r="B114" t="s">
+        <v>359</v>
+      </c>
+      <c r="C114" t="s">
+        <v>360</v>
+      </c>
+      <c r="F114" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
+      <c r="A115" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F115" s="12">
+        <v>1961</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G116" s="3"/>
+      <c r="A116" t="s">
+        <v>362</v>
+      </c>
+      <c r="B116" t="s">
+        <v>363</v>
+      </c>
+      <c r="C116" t="s">
+        <v>364</v>
+      </c>
+      <c r="F116" t="s">
+        <v>240</v>
+      </c>
+      <c r="G116" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
+      <c r="A117" t="s">
+        <v>366</v>
+      </c>
+      <c r="B117" t="s">
+        <v>367</v>
+      </c>
+      <c r="C117" t="s">
+        <v>368</v>
+      </c>
+      <c r="F117" t="s">
+        <v>303</v>
+      </c>
+      <c r="G117" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F118" s="12">
+        <v>1985</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+      <c r="A119" t="s">
+        <v>370</v>
+      </c>
+      <c r="B119" t="s">
+        <v>371</v>
+      </c>
+      <c r="C119" t="s">
+        <v>372</v>
+      </c>
+      <c r="F119" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F120" s="12">
+        <v>1958</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G121" s="3"/>
+      <c r="A121" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F121" s="12">
+        <v>1979</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122" s="6"/>
-      <c r="C122" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D122" s="9">
-        <v>1954</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="A122" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" t="s">
+        <v>376</v>
+      </c>
+      <c r="G122" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" s="6"/>
-      <c r="C123" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D123" s="9">
-        <v>1965</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G123" s="3"/>
+      <c r="A123" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F123" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B124" s="6"/>
-      <c r="C124" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D124" s="9">
-        <v>1945</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>142</v>
+      <c r="A124" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F124" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>314</v>
-      </c>
-      <c r="B125" t="s">
-        <v>301</v>
-      </c>
-      <c r="C125" t="s">
-        <v>302</v>
-      </c>
-      <c r="D125" t="s">
-        <v>315</v>
-      </c>
-      <c r="E125" t="s">
-        <v>316</v>
-      </c>
-      <c r="F125" t="s">
-        <v>247</v>
-      </c>
-      <c r="G125" t="s">
-        <v>317</v>
+      <c r="A125" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F125" s="12">
+        <v>1961</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D126" s="9">
-        <v>1975</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>145</v>
+      <c r="A126" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" t="s">
+        <v>240</v>
+      </c>
+      <c r="G126" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D127" s="9">
-        <v>1924</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>148</v>
+      <c r="A127" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" t="s">
+        <v>240</v>
+      </c>
+      <c r="G127" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B128" s="6"/>
-      <c r="C128" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D128" s="9">
-        <v>1912</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>151</v>
+      <c r="A128" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" t="s">
+        <v>391</v>
+      </c>
+      <c r="G128" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F129" s="12">
+        <v>1967</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>393</v>
+      </c>
+      <c r="B130" t="s">
+        <v>394</v>
+      </c>
+      <c r="C130" t="s">
+        <v>395</v>
+      </c>
+      <c r="F130" t="s">
+        <v>396</v>
+      </c>
+      <c r="G130" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F131" s="12">
+        <v>1981</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>318</v>
+        <v>36</v>
       </c>
       <c r="B132" t="s">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>240</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>321</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D133" s="9">
-        <v>1992</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>154</v>
+      <c r="A133" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="B134" t="s">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="C134" t="s">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>398</v>
       </c>
       <c r="B135" t="s">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="C135" t="s">
-        <v>323</v>
+        <v>400</v>
       </c>
       <c r="F135" t="s">
-        <v>324</v>
+        <v>401</v>
       </c>
       <c r="G135" t="s">
-        <v>154</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D136" s="6"/>
-      <c r="E136" s="8" t="s">
-        <v>157</v>
+      <c r="A136" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D137" s="9">
-        <v>1973</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>160</v>
+      <c r="A137" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" t="s">
+        <v>401</v>
+      </c>
+      <c r="G137" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>158</v>
+        <v>409</v>
       </c>
       <c r="B138" t="s">
-        <v>325</v>
+        <v>410</v>
       </c>
       <c r="C138" t="s">
-        <v>326</v>
+        <v>411</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>412</v>
+      </c>
+      <c r="E138" t="s">
+        <v>413</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>414</v>
       </c>
       <c r="G138" t="s">
-        <v>327</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>416</v>
       </c>
       <c r="B139" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="C139" t="s">
-        <v>326</v>
+        <v>418</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>419</v>
+      </c>
+      <c r="E139" t="s">
+        <v>420</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D140" s="9">
-        <v>1979</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>163</v>
+        <v>206</v>
+      </c>
+      <c r="F140" s="9">
+        <v>1922</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>328</v>
+        <v>437</v>
       </c>
       <c r="B141" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="C141" t="s">
-        <v>330</v>
+        <v>439</v>
+      </c>
+      <c r="D141" t="s">
+        <v>440</v>
+      </c>
+      <c r="E141" t="s">
+        <v>441</v>
       </c>
       <c r="F141" t="s">
-        <v>331</v>
+        <v>442</v>
       </c>
       <c r="G141" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>328</v>
+        <v>422</v>
       </c>
       <c r="B142" t="s">
-        <v>329</v>
+        <v>423</v>
       </c>
       <c r="C142" t="s">
-        <v>330</v>
+        <v>424</v>
+      </c>
+      <c r="D142" t="s">
+        <v>425</v>
+      </c>
+      <c r="E142" t="s">
+        <v>426</v>
       </c>
       <c r="F142" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="G142" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>444</v>
+      </c>
+      <c r="B143" t="s">
+        <v>445</v>
+      </c>
+      <c r="C143" t="s">
+        <v>446</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" t="s">
+        <v>447</v>
+      </c>
+    </row>
     <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D144" s="9">
-        <v>1959</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D145" s="9">
-        <v>1964</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>333</v>
-      </c>
-      <c r="B146" t="s">
-        <v>334</v>
-      </c>
-      <c r="C146" t="s">
-        <v>335</v>
-      </c>
-      <c r="F146" t="s">
-        <v>336</v>
-      </c>
-      <c r="G146" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>333</v>
-      </c>
-      <c r="B147" t="s">
-        <v>334</v>
-      </c>
-      <c r="C147" t="s">
-        <v>335</v>
-      </c>
-      <c r="F147" t="s">
-        <v>336</v>
-      </c>
-      <c r="G147" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>338</v>
-      </c>
-      <c r="B148" t="s">
-        <v>32</v>
-      </c>
-      <c r="C148" t="s">
-        <v>33</v>
-      </c>
-      <c r="D148" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" t="s">
-        <v>34</v>
-      </c>
-      <c r="G148" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>338</v>
-      </c>
-      <c r="B149" t="s">
-        <v>32</v>
-      </c>
-      <c r="C149" t="s">
-        <v>33</v>
-      </c>
-      <c r="D149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" t="s">
-        <v>34</v>
-      </c>
-      <c r="G149" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>31</v>
-      </c>
-      <c r="B151" t="s">
-        <v>32</v>
-      </c>
-      <c r="C151" t="s">
-        <v>33</v>
-      </c>
-      <c r="D151" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" t="s">
-        <v>34</v>
-      </c>
-      <c r="G151" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-    </row>
-    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>339</v>
-      </c>
-      <c r="B154" t="s">
-        <v>340</v>
-      </c>
-      <c r="C154" t="s">
-        <v>341</v>
-      </c>
-      <c r="F154" t="s">
-        <v>279</v>
-      </c>
-      <c r="G154" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="8" t="s">
-        <v>170</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F144" s="9">
+        <v>1994</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+    </row>
+    <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="10"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="10"/>
+    </row>
+    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="8"/>
       <c r="B155" s="6"/>
-      <c r="C155" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D155" s="9">
-        <v>1970</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>339</v>
-      </c>
-      <c r="B156" t="s">
-        <v>340</v>
-      </c>
-      <c r="C156" t="s">
-        <v>341</v>
-      </c>
-      <c r="F156" t="s">
-        <v>279</v>
-      </c>
-      <c r="G156" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>173</v>
-      </c>
-      <c r="B157" t="s">
-        <v>329</v>
-      </c>
-      <c r="C157" t="s">
-        <v>330</v>
-      </c>
-      <c r="F157" t="s">
-        <v>343</v>
-      </c>
-      <c r="G157" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D158" s="9">
-        <v>1966</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>173</v>
-      </c>
-      <c r="B159" t="s">
-        <v>329</v>
-      </c>
-      <c r="C159" t="s">
-        <v>330</v>
-      </c>
-      <c r="F159" t="s">
-        <v>343</v>
-      </c>
-      <c r="G159" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>345</v>
-      </c>
-      <c r="B160" t="s">
-        <v>346</v>
-      </c>
-      <c r="C160" t="s">
-        <v>347</v>
-      </c>
-      <c r="D160" t="s">
-        <v>348</v>
-      </c>
-      <c r="E160" t="s">
-        <v>349</v>
-      </c>
-      <c r="F160" t="s">
-        <v>350</v>
-      </c>
-      <c r="G160" t="s">
-        <v>351</v>
-      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="8"/>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="14"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>345</v>
-      </c>
-      <c r="B161" t="s">
-        <v>346</v>
-      </c>
-      <c r="C161" t="s">
-        <v>347</v>
-      </c>
-      <c r="D161" t="s">
-        <v>348</v>
-      </c>
-      <c r="E161" t="s">
-        <v>349</v>
-      </c>
-      <c r="F161" t="s">
-        <v>350</v>
-      </c>
-      <c r="G161" t="s">
-        <v>351</v>
-      </c>
+      <c r="A161" s="10"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="10"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>352</v>
-      </c>
-      <c r="B162" t="s">
-        <v>353</v>
-      </c>
-      <c r="C162" t="s">
-        <v>354</v>
-      </c>
-      <c r="D162" t="s">
-        <v>355</v>
-      </c>
-      <c r="E162" t="s">
-        <v>356</v>
-      </c>
-      <c r="F162" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" t="s">
-        <v>357</v>
-      </c>
+      <c r="A162" s="10"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="10"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>352</v>
-      </c>
-      <c r="B163" t="s">
-        <v>353</v>
-      </c>
-      <c r="C163" t="s">
-        <v>354</v>
-      </c>
-      <c r="D163" t="s">
-        <v>355</v>
-      </c>
-      <c r="E163" t="s">
-        <v>356</v>
-      </c>
-      <c r="F163" t="s">
-        <v>24</v>
-      </c>
-      <c r="G163" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A163" s="10"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="10"/>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+    </row>
     <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B165" s="6"/>
-      <c r="C165" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D165" s="9">
-        <v>1916</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>178</v>
-      </c>
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="10"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="10"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="10"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="10"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="10"/>
     </row>
     <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B174" s="6"/>
-      <c r="C174" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D174" s="9">
-        <v>1963</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="A174" s="14"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B176" s="6"/>
-      <c r="C176" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D176" s="9">
-        <v>1952</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
     </row>
     <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
@@ -3875,21 +4425,11 @@
       <c r="E177" s="8"/>
     </row>
     <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>358</v>
-      </c>
-      <c r="B178" t="s">
-        <v>359</v>
-      </c>
-      <c r="C178" t="s">
-        <v>360</v>
-      </c>
-      <c r="F178" t="s">
-        <v>34</v>
-      </c>
-      <c r="G178" t="s">
-        <v>361</v>
-      </c>
+      <c r="A178" s="10"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="10"/>
     </row>
     <row r="179" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
@@ -3899,556 +4439,145 @@
       <c r="E179" s="8"/>
     </row>
     <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="8" t="s">
-        <v>187</v>
-      </c>
+      <c r="A180" s="8"/>
       <c r="B180" s="6"/>
-      <c r="C180" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D180" s="9">
-        <v>1961</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>189</v>
-      </c>
+      <c r="C180" s="8"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="8"/>
     </row>
     <row r="181" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>362</v>
-      </c>
-      <c r="B181" t="s">
-        <v>363</v>
-      </c>
-      <c r="C181" t="s">
-        <v>364</v>
-      </c>
-      <c r="F181" t="s">
-        <v>240</v>
-      </c>
-      <c r="G181" t="s">
-        <v>365</v>
-      </c>
+      <c r="A181" s="10"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="10"/>
     </row>
     <row r="182" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B182" s="6"/>
-      <c r="C182" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D182" s="9">
-        <v>1985</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>366</v>
-      </c>
-      <c r="B183" t="s">
-        <v>367</v>
-      </c>
-      <c r="C183" t="s">
-        <v>368</v>
-      </c>
-      <c r="F183" t="s">
-        <v>303</v>
-      </c>
-      <c r="G183" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>370</v>
-      </c>
-      <c r="B184" t="s">
-        <v>371</v>
-      </c>
-      <c r="C184" t="s">
-        <v>372</v>
-      </c>
-      <c r="F184" t="s">
-        <v>29</v>
-      </c>
-      <c r="G184" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+    </row>
     <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B187" s="6"/>
-      <c r="C187" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D187" s="9">
-        <v>1958</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="G187" s="3"/>
     </row>
     <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B188" s="6"/>
-      <c r="C188" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D188" s="9">
-        <v>1979</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="A188" s="15"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>374</v>
-      </c>
-      <c r="B190" t="s">
-        <v>375</v>
-      </c>
-      <c r="F190" t="s">
-        <v>376</v>
-      </c>
-      <c r="G190" t="s">
-        <v>195</v>
-      </c>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>409</v>
-      </c>
-      <c r="B192" t="s">
-        <v>410</v>
-      </c>
-      <c r="C192" t="s">
-        <v>411</v>
-      </c>
-      <c r="D192" t="s">
-        <v>412</v>
-      </c>
-      <c r="E192" t="s">
-        <v>413</v>
-      </c>
-      <c r="F192" t="s">
-        <v>414</v>
-      </c>
-      <c r="G192" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>377</v>
-      </c>
-      <c r="B194" t="s">
-        <v>265</v>
-      </c>
-      <c r="C194" t="s">
-        <v>266</v>
-      </c>
-      <c r="D194" t="s">
-        <v>378</v>
-      </c>
-      <c r="E194" t="s">
-        <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>29</v>
-      </c>
-      <c r="G194" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>47</v>
-      </c>
-      <c r="B195" t="s">
-        <v>48</v>
-      </c>
-      <c r="C195" t="s">
-        <v>49</v>
-      </c>
-      <c r="D195" t="s">
-        <v>50</v>
-      </c>
-      <c r="E195" t="s">
-        <v>51</v>
-      </c>
-      <c r="F195" t="s">
-        <v>52</v>
-      </c>
-      <c r="G195" t="s">
-        <v>53</v>
-      </c>
+      <c r="G192" s="3"/>
     </row>
     <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B197" s="6"/>
-      <c r="C197" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D197" s="9">
-        <v>1961</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="A197" s="15"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>381</v>
-      </c>
-      <c r="B198" t="s">
-        <v>382</v>
-      </c>
-      <c r="C198" t="s">
-        <v>383</v>
-      </c>
-      <c r="F198" t="s">
-        <v>240</v>
-      </c>
-      <c r="G198" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>385</v>
-      </c>
-      <c r="B199" t="s">
-        <v>386</v>
-      </c>
-      <c r="F199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G199" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>388</v>
-      </c>
-      <c r="B200" t="s">
-        <v>389</v>
-      </c>
-      <c r="C200" t="s">
-        <v>390</v>
-      </c>
-      <c r="F200" t="s">
-        <v>391</v>
-      </c>
-      <c r="G200" t="s">
-        <v>392</v>
-      </c>
-    </row>
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="201" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B201" s="6"/>
-      <c r="C201" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D201" s="9">
-        <v>1967</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="A201" s="14"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
     </row>
     <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="9">
-        <v>1974</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>393</v>
-      </c>
-      <c r="B203" t="s">
-        <v>394</v>
-      </c>
-      <c r="C203" t="s">
-        <v>395</v>
-      </c>
-      <c r="F203" t="s">
-        <v>396</v>
-      </c>
-      <c r="G203" t="s">
-        <v>397</v>
-      </c>
-    </row>
+      <c r="A202" s="14"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B204" s="6"/>
-      <c r="C204" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D204" s="9">
-        <v>1981</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>36</v>
-      </c>
-      <c r="B207" t="s">
-        <v>37</v>
-      </c>
-      <c r="C207" t="s">
-        <v>38</v>
-      </c>
-      <c r="F207" t="s">
-        <v>39</v>
-      </c>
-      <c r="G207" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>36</v>
-      </c>
-      <c r="B209" t="s">
-        <v>37</v>
-      </c>
-      <c r="C209" t="s">
-        <v>38</v>
-      </c>
-      <c r="F209" t="s">
-        <v>39</v>
-      </c>
-      <c r="G209" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>398</v>
-      </c>
-      <c r="B216" t="s">
-        <v>399</v>
-      </c>
-      <c r="C216" t="s">
-        <v>400</v>
-      </c>
-      <c r="F216" t="s">
-        <v>401</v>
-      </c>
-      <c r="G216" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>403</v>
-      </c>
-      <c r="B217" t="s">
-        <v>404</v>
-      </c>
-      <c r="C217" t="s">
-        <v>405</v>
-      </c>
-      <c r="F217" t="s">
-        <v>29</v>
-      </c>
-      <c r="G217" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>407</v>
-      </c>
-      <c r="B218" t="s">
-        <v>253</v>
-      </c>
-      <c r="C218" t="s">
-        <v>254</v>
-      </c>
-      <c r="F218" t="s">
-        <v>401</v>
-      </c>
-      <c r="G218" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>416</v>
-      </c>
-      <c r="B220" t="s">
-        <v>417</v>
-      </c>
-      <c r="C220" t="s">
-        <v>418</v>
-      </c>
-      <c r="D220" t="s">
-        <v>419</v>
-      </c>
-      <c r="E220" t="s">
-        <v>420</v>
-      </c>
-      <c r="F220" t="s">
-        <v>29</v>
-      </c>
-      <c r="G220" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="224" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B224" s="6"/>
-      <c r="C224" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D224" s="9">
-        <v>1922</v>
-      </c>
-      <c r="E224" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>437</v>
-      </c>
-      <c r="B225" t="s">
-        <v>438</v>
-      </c>
-      <c r="C225" t="s">
-        <v>439</v>
-      </c>
-      <c r="D225" t="s">
-        <v>440</v>
-      </c>
-      <c r="E225" t="s">
-        <v>441</v>
-      </c>
-      <c r="F225" t="s">
-        <v>442</v>
-      </c>
-      <c r="G225" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>422</v>
-      </c>
-      <c r="B226" t="s">
-        <v>423</v>
-      </c>
-      <c r="C226" t="s">
-        <v>424</v>
-      </c>
-      <c r="D226" t="s">
-        <v>425</v>
-      </c>
-      <c r="E226" t="s">
-        <v>426</v>
-      </c>
-      <c r="F226" t="s">
-        <v>396</v>
-      </c>
-      <c r="G226" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>444</v>
-      </c>
-      <c r="B228" t="s">
-        <v>445</v>
-      </c>
-      <c r="C228" t="s">
-        <v>446</v>
-      </c>
-      <c r="D228" t="s">
-        <v>8</v>
-      </c>
-      <c r="F228" t="s">
-        <v>9</v>
-      </c>
-      <c r="G228" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="230" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B230" s="6"/>
-      <c r="C230" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D230" s="9">
-        <v>1994</v>
-      </c>
-      <c r="E230" s="8" t="s">
-        <v>210</v>
-      </c>
+      <c r="A204" s="14"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="10"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="10"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="10"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="10"/>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="14"/>
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="14"/>
+      <c r="B230" s="14"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H230">
+    <sortCondition ref="A1:A230"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4460,7 +4589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
